--- a/data/trans_orig/P39C-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P39C-Clase-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>42187</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30654</v>
+        <v>29976</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>57019</v>
+        <v>56502</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1192891594618035</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08667859988796511</v>
+        <v>0.08476162359175651</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1612303843382239</v>
+        <v>0.1597670704539397</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -763,19 +763,19 @@
         <v>24728</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16104</v>
+        <v>16767</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35877</v>
+        <v>36138</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07952293219388792</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05179010845430453</v>
+        <v>0.05392109295840893</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1153800174932037</v>
+        <v>0.1162168464173472</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>62</v>
@@ -784,19 +784,19 @@
         <v>66914</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>51384</v>
+        <v>52866</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>82942</v>
+        <v>85405</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1006834991411951</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07731514003146854</v>
+        <v>0.07954624656239534</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1248001234189044</v>
+        <v>0.128506302612321</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>95544</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>78387</v>
+        <v>78796</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>113982</v>
+        <v>115004</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2701665705184</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2216502780732123</v>
+        <v>0.2228073725321359</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3223017406752024</v>
+        <v>0.3251929239528895</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>93</v>
@@ -834,19 +834,19 @@
         <v>94843</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>78723</v>
+        <v>79003</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>112713</v>
+        <v>111236</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3050114913798274</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2531681749318774</v>
+        <v>0.2540704013086869</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3624801566958518</v>
+        <v>0.3577297445118527</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>180</v>
@@ -855,19 +855,19 @@
         <v>190388</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>166477</v>
+        <v>166456</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>216487</v>
+        <v>214836</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2864696700575729</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2504925328794282</v>
+        <v>0.2504597778931471</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.325740339385353</v>
+        <v>0.3232556939453111</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>113218</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>94252</v>
+        <v>95572</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>131445</v>
+        <v>130980</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3201422055188516</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2665123808597671</v>
+        <v>0.2702451804903669</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3716810931409278</v>
+        <v>0.3703675106136482</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>88</v>
@@ -905,19 +905,19 @@
         <v>91555</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>76108</v>
+        <v>75382</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>108744</v>
+        <v>107354</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2944354335294605</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.244760651005494</v>
+        <v>0.2424236008643752</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3497148841116644</v>
+        <v>0.3452457062943793</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>194</v>
@@ -926,19 +926,19 @@
         <v>204773</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>181885</v>
+        <v>180837</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>230997</v>
+        <v>231896</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3081146258253704</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.273675467259235</v>
+        <v>0.2720991719219081</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3475725767851741</v>
+        <v>0.3489252892958591</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>41769</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>30717</v>
+        <v>29478</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>57177</v>
+        <v>55939</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1181073422180553</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08685696314058734</v>
+        <v>0.08335318431353268</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1616778006048086</v>
+        <v>0.1581761182859526</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>42</v>
@@ -976,19 +976,19 @@
         <v>46923</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>35318</v>
+        <v>34435</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>62166</v>
+        <v>63828</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1509033228118179</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1135819363432217</v>
+        <v>0.1107399388095902</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1999218865799579</v>
+        <v>0.2052674458448672</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>80</v>
@@ -1000,16 +1000,16 @@
         <v>71327</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>108995</v>
+        <v>106792</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1334517919366015</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.107323387033502</v>
+        <v>0.1073225098531674</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1640004023462827</v>
+        <v>0.1606855813504198</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>60932</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>48008</v>
+        <v>47071</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>79451</v>
+        <v>76381</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1722947222828896</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1357487714955486</v>
+        <v>0.1331015292220195</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2246610834604211</v>
+        <v>0.2159784176710926</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>51</v>
@@ -1047,19 +1047,19 @@
         <v>52901</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>41235</v>
+        <v>39707</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>67021</v>
+        <v>66975</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1701268200850063</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1326092461232977</v>
+        <v>0.1276950620335018</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2155355320279913</v>
+        <v>0.2153876900014512</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>107</v>
@@ -1068,19 +1068,19 @@
         <v>113833</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>97290</v>
+        <v>92797</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>136829</v>
+        <v>134229</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1712804130392601</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1463887786521694</v>
+        <v>0.1396284736493584</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2058822222085872</v>
+        <v>0.20196921978614</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>30225</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20699</v>
+        <v>20829</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>42791</v>
+        <v>41788</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09810375636654761</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06718526285448029</v>
+        <v>0.06760675566771884</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1388883259755222</v>
+        <v>0.1356335005850175</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -1193,19 +1193,19 @@
         <v>35904</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25241</v>
+        <v>26437</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>48317</v>
+        <v>50510</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1146347490293732</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0805883120999546</v>
+        <v>0.08440770662131027</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1542681274351058</v>
+        <v>0.1612686225348816</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>62</v>
@@ -1214,19 +1214,19 @@
         <v>66129</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>51241</v>
+        <v>50792</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>83755</v>
+        <v>83352</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1064372130094754</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08247391736562674</v>
+        <v>0.08175089745817449</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1348068924286471</v>
+        <v>0.1341579373435777</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>88986</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>72850</v>
+        <v>72198</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>104879</v>
+        <v>105901</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2888249998555667</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2364541057348603</v>
+        <v>0.2343381115397113</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3404104872713527</v>
+        <v>0.3437297575626344</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>75</v>
@@ -1264,19 +1264,19 @@
         <v>76830</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>63515</v>
+        <v>62065</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>90863</v>
+        <v>93212</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2453027862752563</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2027903540559665</v>
+        <v>0.198161674840092</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2901085501069978</v>
+        <v>0.2976088676979199</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>159</v>
@@ -1285,19 +1285,19 @@
         <v>165815</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>144106</v>
+        <v>143333</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>189409</v>
+        <v>190047</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2668849695577271</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2319422750851504</v>
+        <v>0.2306988330723455</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3048604394462043</v>
+        <v>0.3058867541207456</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>87293</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>71921</v>
+        <v>73115</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>103572</v>
+        <v>105902</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2833306893365317</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.233438307575282</v>
+        <v>0.2373126069880122</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3361679563652194</v>
+        <v>0.3437328651404872</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>93</v>
@@ -1335,19 +1335,19 @@
         <v>101160</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>85235</v>
+        <v>83594</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>118262</v>
+        <v>119077</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3229854228206287</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2721390277400079</v>
+        <v>0.2668988883146197</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3775879688852833</v>
+        <v>0.3801899282271988</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>179</v>
@@ -1356,19 +1356,19 @@
         <v>188453</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>166698</v>
+        <v>166479</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>211138</v>
+        <v>213593</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3033210800478959</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2683059598401534</v>
+        <v>0.2679530226792201</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3398334197784595</v>
+        <v>0.3437840963175904</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>42966</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>31160</v>
+        <v>29835</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>57563</v>
+        <v>56826</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.139455479841147</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1011381799350732</v>
+        <v>0.09683859535587383</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1868365456280437</v>
+        <v>0.1844420932441373</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>37</v>
@@ -1406,19 +1406,19 @@
         <v>37371</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>26349</v>
+        <v>26598</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>49861</v>
+        <v>49557</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1193192578146318</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08412722421109885</v>
+        <v>0.08492357389967649</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1591971631689971</v>
+        <v>0.1582269266284652</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>75</v>
@@ -1427,19 +1427,19 @@
         <v>80337</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>63834</v>
+        <v>64117</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>98666</v>
+        <v>99565</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1293045871129877</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1027430912302</v>
+        <v>0.103197748812002</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1588067658046923</v>
+        <v>0.1602534658329812</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>58626</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>45427</v>
+        <v>45743</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>73697</v>
+        <v>75026</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.190285074600207</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1474435260109843</v>
+        <v>0.1484704443504309</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2392017135787711</v>
+        <v>0.2435155553077522</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>56</v>
@@ -1477,19 +1477,19 @@
         <v>61939</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>48818</v>
+        <v>48342</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>78213</v>
+        <v>77489</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.19775778406011</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1558655811854196</v>
+        <v>0.1543482625263943</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2497196657094342</v>
+        <v>0.2474061318945966</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>111</v>
@@ -1498,19 +1498,19 @@
         <v>120564</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>101439</v>
+        <v>101893</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>141917</v>
+        <v>141729</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.194052150271914</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1632699505345868</v>
+        <v>0.1640002656591825</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2284192517699508</v>
+        <v>0.2281170434479163</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>41045</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>29340</v>
+        <v>29350</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>55310</v>
+        <v>55462</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09578781279713079</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06847253857582958</v>
+        <v>0.06849428470293704</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1290775407246142</v>
+        <v>0.1294337074511352</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1623,19 +1623,19 @@
         <v>8631</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3894</v>
+        <v>3136</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16195</v>
+        <v>16226</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06140688433475352</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02770239000919848</v>
+        <v>0.02231524970423509</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1152223128661764</v>
+        <v>0.115441454890052</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>47</v>
@@ -1644,19 +1644,19 @@
         <v>49676</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>38284</v>
+        <v>37373</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>64372</v>
+        <v>64361</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08729587053984898</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06727720539097602</v>
+        <v>0.06567616930758408</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1131203154015897</v>
+        <v>0.1131017333868462</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>108583</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>90091</v>
+        <v>92336</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>128350</v>
+        <v>127108</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.253402002374375</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2102469610571648</v>
+        <v>0.2154861216868748</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2995338029178386</v>
+        <v>0.2966348318849253</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>31</v>
@@ -1694,19 +1694,19 @@
         <v>33055</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>24157</v>
+        <v>23836</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>45308</v>
+        <v>45133</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2351730301886172</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1718732067090598</v>
+        <v>0.1695844500093645</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3223513194844411</v>
+        <v>0.321108273496607</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>139</v>
@@ -1715,19 +1715,19 @@
         <v>141637</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>120520</v>
+        <v>123292</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>162488</v>
+        <v>162695</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2488995242234302</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2117907615609178</v>
+        <v>0.2166615907781799</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2855406264019433</v>
+        <v>0.2859035903845794</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>127239</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>108886</v>
+        <v>107947</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>147163</v>
+        <v>147013</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2969414857826191</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2541091149590083</v>
+        <v>0.2519193161592724</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3434384794763495</v>
+        <v>0.3430879787754457</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>37</v>
@@ -1765,19 +1765,19 @@
         <v>40948</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>30319</v>
+        <v>29551</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>54570</v>
+        <v>52817</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2913361825728359</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2157075104962314</v>
+        <v>0.2102439047599613</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3882487531733012</v>
+        <v>0.3757745492574692</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>160</v>
@@ -1786,19 +1786,19 @@
         <v>168188</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>147244</v>
+        <v>146576</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>191366</v>
+        <v>189584</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2955569998678735</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2587528806266385</v>
+        <v>0.2575782950426449</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3362872805926948</v>
+        <v>0.3331571223921821</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>72459</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>58519</v>
+        <v>56931</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>92070</v>
+        <v>89548</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1690993958254169</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1365663039814257</v>
+        <v>0.1328619320192539</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2148660129835472</v>
+        <v>0.2089792400603315</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -1836,19 +1836,19 @@
         <v>17154</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9944</v>
+        <v>10455</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>26873</v>
+        <v>27415</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1220473407469547</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07074675087495463</v>
+        <v>0.07438113693735415</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1911960375123974</v>
+        <v>0.1950510691764176</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>83</v>
@@ -1857,19 +1857,19 @@
         <v>89613</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>73660</v>
+        <v>72931</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>108170</v>
+        <v>108977</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1574777394978403</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1294433401832778</v>
+        <v>0.1281609923457093</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.190087362412092</v>
+        <v>0.191505834906432</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>79174</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>64090</v>
+        <v>64238</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>97036</v>
+        <v>96974</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1847693032204582</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.149567540170714</v>
+        <v>0.1499127484930722</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2264544547479697</v>
+        <v>0.2263100385525809</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>37</v>
@@ -1907,19 +1907,19 @@
         <v>40766</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>30502</v>
+        <v>29536</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>52829</v>
+        <v>52811</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2900365621568387</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2170097405533975</v>
+        <v>0.2101406352881031</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3758602933755117</v>
+        <v>0.375737910768721</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>113</v>
@@ -1928,19 +1928,19 @@
         <v>119939</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>100386</v>
+        <v>101708</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>140436</v>
+        <v>140573</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.210769865871007</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.176409418866476</v>
+        <v>0.17873224343849</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2467886861462779</v>
+        <v>0.2470288127359584</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>110809</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>91612</v>
+        <v>92009</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>131526</v>
+        <v>132580</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1203928246943115</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09953503233399508</v>
+        <v>0.09996705134862112</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1429018406121387</v>
+        <v>0.1440467595549154</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>69</v>
@@ -2053,19 +2053,19 @@
         <v>69798</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>55455</v>
+        <v>55595</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>86289</v>
+        <v>87690</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1018671323199332</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08093421929304083</v>
+        <v>0.08113818956583145</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1259349520437596</v>
+        <v>0.1279785299274557</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>175</v>
@@ -2074,19 +2074,19 @@
         <v>180607</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>156619</v>
+        <v>155729</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>207137</v>
+        <v>207205</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1124869108919783</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09754643286470809</v>
+        <v>0.09699189770808019</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1290099337235409</v>
+        <v>0.1290523885569766</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>249387</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>223845</v>
+        <v>221999</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>279213</v>
+        <v>279301</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2709566660016859</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2432054178485149</v>
+        <v>0.2411991203137847</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3033619189359967</v>
+        <v>0.3034578731897929</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>189</v>
@@ -2124,19 +2124,19 @@
         <v>193016</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>169166</v>
+        <v>167865</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>216241</v>
+        <v>214912</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2816968356504984</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.246888752726637</v>
+        <v>0.2449900901656221</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.315592564985441</v>
+        <v>0.313653283369687</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>428</v>
@@ -2145,19 +2145,19 @@
         <v>442403</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>407826</v>
+        <v>405011</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>480050</v>
+        <v>478918</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2755400766375756</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2540044218613652</v>
+        <v>0.2522512387578286</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2989871583764536</v>
+        <v>0.2982822183375706</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>256887</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>228952</v>
+        <v>230404</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>284117</v>
+        <v>283378</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2791049694476391</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2487541590963811</v>
+        <v>0.250330968154155</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3086898636734652</v>
+        <v>0.3078867326587222</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>187</v>
@@ -2195,19 +2195,19 @@
         <v>194012</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>170992</v>
+        <v>171337</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>218992</v>
+        <v>218719</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.283149991031938</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2495548391004868</v>
+        <v>0.2500571837329652</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3196078458208005</v>
+        <v>0.3192096163557251</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>434</v>
@@ -2216,19 +2216,19 @@
         <v>450899</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>414132</v>
+        <v>411355</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>490060</v>
+        <v>484435</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2808311986933689</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2579318033062322</v>
+        <v>0.2562023246379239</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3052216481454273</v>
+        <v>0.3017186696971876</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>136448</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>118030</v>
+        <v>116294</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>162070</v>
+        <v>159381</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1482495750130762</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1282378619596958</v>
+        <v>0.1263518327831801</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1760876009057608</v>
+        <v>0.1731657252710848</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>79</v>
@@ -2266,19 +2266,19 @@
         <v>81346</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>64113</v>
+        <v>64991</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>99386</v>
+        <v>101667</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1187202634775602</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0935700915235404</v>
+        <v>0.09485164622185585</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1450494226111707</v>
+        <v>0.148378333860275</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>213</v>
@@ -2287,19 +2287,19 @@
         <v>217794</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>191932</v>
+        <v>190310</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>249103</v>
+        <v>244769</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1356478224348616</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1195398448882327</v>
+        <v>0.1185296623854608</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1551474661513881</v>
+        <v>0.1524482025646637</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>166864</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>144767</v>
+        <v>145249</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>190115</v>
+        <v>194351</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1812959648432873</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1572880316450667</v>
+        <v>0.1578117632961074</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2065576203855512</v>
+        <v>0.2111600915073287</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>136</v>
@@ -2337,19 +2337,19 @@
         <v>147018</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>125643</v>
+        <v>127301</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>170114</v>
+        <v>170914</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2145657775200703</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1833699618007599</v>
+        <v>0.1857898336182763</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2482722199490149</v>
+        <v>0.2494404316979517</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>297</v>
@@ -2358,19 +2358,19 @@
         <v>313882</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>283230</v>
+        <v>280988</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>350482</v>
+        <v>346555</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1954939913422156</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.176402842355266</v>
+        <v>0.1750067920952462</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2182894046966152</v>
+        <v>0.2158432883251655</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>64933</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>51640</v>
+        <v>51570</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>82088</v>
+        <v>81899</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.134740549541071</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1071559988761989</v>
+        <v>0.1070112663869838</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1703369255844768</v>
+        <v>0.1699440184992009</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>59</v>
@@ -2483,19 +2483,19 @@
         <v>60270</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>46536</v>
+        <v>47142</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>75777</v>
+        <v>77055</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.09584823661298912</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07400729207888633</v>
+        <v>0.07497062283281718</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1205093134486585</v>
+        <v>0.1225417452881928</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>121</v>
@@ -2504,19 +2504,19 @@
         <v>125203</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>104410</v>
+        <v>106781</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>147192</v>
+        <v>147215</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1127227283761089</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0940024161127312</v>
+        <v>0.09613685940593338</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1325196347307198</v>
+        <v>0.13254069453233</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>120222</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>100480</v>
+        <v>102555</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>138322</v>
+        <v>140420</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2494663088920863</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2085018441784079</v>
+        <v>0.212806687369436</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2870258056583176</v>
+        <v>0.2913794673187235</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>132</v>
@@ -2554,19 +2554,19 @@
         <v>140113</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>119147</v>
+        <v>120648</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>162391</v>
+        <v>161968</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2228252771902419</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1894825849456507</v>
+        <v>0.1918696537888699</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2582535495475766</v>
+        <v>0.2575819604181548</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>245</v>
@@ -2575,19 +2575,19 @@
         <v>260335</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>228646</v>
+        <v>229363</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>289016</v>
+        <v>290874</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2343842161210554</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2058544840782625</v>
+        <v>0.2064996415124527</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2602066748684657</v>
+        <v>0.2618796443699445</v>
       </c>
     </row>
     <row r="30">
@@ -2604,19 +2604,19 @@
         <v>150099</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>130056</v>
+        <v>130700</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>171311</v>
+        <v>169295</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.311463785137306</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2698728060645411</v>
+        <v>0.2712101100947829</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3554797575205725</v>
+        <v>0.3512972670051168</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>190</v>
@@ -2625,19 +2625,19 @@
         <v>203339</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>180554</v>
+        <v>177925</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>228039</v>
+        <v>227759</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3233743122665491</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2871393018478992</v>
+        <v>0.2829587026402786</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3626558485615083</v>
+        <v>0.3622102856143646</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>337</v>
@@ -2646,19 +2646,19 @@
         <v>353438</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>322988</v>
+        <v>322174</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>385344</v>
+        <v>382724</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3182066049021535</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2907921816487952</v>
+        <v>0.2900588669472442</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3469321082049004</v>
+        <v>0.344573714072403</v>
       </c>
     </row>
     <row r="31">
@@ -2675,19 +2675,19 @@
         <v>59186</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>45412</v>
+        <v>46074</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>74385</v>
+        <v>76009</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1228138218383913</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09423152610295882</v>
+        <v>0.09560557365721925</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1543523883394429</v>
+        <v>0.1577226908706608</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>82</v>
@@ -2696,19 +2696,19 @@
         <v>86788</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>68805</v>
+        <v>70230</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>104818</v>
+        <v>106786</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1380216217119714</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1094222341985236</v>
+        <v>0.1116876840562372</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1666944234380774</v>
+        <v>0.1698243955056353</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>141</v>
@@ -2717,19 +2717,19 @@
         <v>145974</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>126856</v>
+        <v>123475</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>170437</v>
+        <v>169851</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.131423302548582</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1142110787459368</v>
+        <v>0.1111664968116473</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1534478429464484</v>
+        <v>0.1529195754695624</v>
       </c>
     </row>
     <row r="32">
@@ -2746,19 +2746,19 @@
         <v>87475</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>69374</v>
+        <v>71489</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>104120</v>
+        <v>105002</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1815155345911453</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1439549832188831</v>
+        <v>0.1483445106311615</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2160546960493407</v>
+        <v>0.217884981761659</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>129</v>
@@ -2767,19 +2767,19 @@
         <v>138293</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>118792</v>
+        <v>119233</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>160149</v>
+        <v>160636</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2199305522182485</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1889168998815305</v>
+        <v>0.1896195638022793</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2546884360894848</v>
+        <v>0.2554629926751654</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>216</v>
@@ -2788,19 +2788,19 @@
         <v>225768</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>199552</v>
+        <v>198056</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>252758</v>
+        <v>253349</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2032631480521002</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1796604329489679</v>
+        <v>0.1783132715177972</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2275623231705745</v>
+        <v>0.2280949408040101</v>
       </c>
     </row>
     <row r="33">
@@ -2892,19 +2892,19 @@
         <v>22994</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>14252</v>
+        <v>15125</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>34036</v>
+        <v>32605</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1604936176587745</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.09947744014166655</v>
+        <v>0.1055668448440817</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2375589516926187</v>
+        <v>0.227577379339843</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>50</v>
@@ -2913,19 +2913,19 @@
         <v>51744</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>38806</v>
+        <v>39930</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>67122</v>
+        <v>68073</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.05646379155292949</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.04234554591775969</v>
+        <v>0.04357230706304006</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.07324477528410642</v>
+        <v>0.07428228401152084</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>72</v>
@@ -2934,19 +2934,19 @@
         <v>74738</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>59182</v>
+        <v>59091</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>92404</v>
+        <v>93417</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.0705289414364179</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.05584927999518099</v>
+        <v>0.055762680630084</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.08719992320505961</v>
+        <v>0.08815577317083702</v>
       </c>
     </row>
     <row r="35">
@@ -2963,19 +2963,19 @@
         <v>59331</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>46921</v>
+        <v>48653</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>71056</v>
+        <v>71996</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.4141156575260046</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.3274955903045483</v>
+        <v>0.3395857661080423</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4959486133349457</v>
+        <v>0.5025103000933909</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>218</v>
@@ -2984,19 +2984,19 @@
         <v>236385</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>209307</v>
+        <v>210852</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>265358</v>
+        <v>265202</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.257947045519819</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.228399394114159</v>
+        <v>0.2300848479047258</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2895629824595333</v>
+        <v>0.2893932357508106</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>275</v>
@@ -3005,19 +3005,19 @@
         <v>295716</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>266003</v>
+        <v>266220</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>324648</v>
+        <v>327833</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2790615183319574</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2510221902885702</v>
+        <v>0.2512271459643897</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3063639939644526</v>
+        <v>0.3093701879368307</v>
       </c>
     </row>
     <row r="36">
@@ -3034,19 +3034,19 @@
         <v>32928</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>22629</v>
+        <v>24114</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>43842</v>
+        <v>44175</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2298274267350117</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1579418396540962</v>
+        <v>0.1683068799233642</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3060059455162192</v>
+        <v>0.3083281797988613</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>255</v>
@@ -3055,19 +3055,19 @@
         <v>279751</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>251036</v>
+        <v>250700</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>308799</v>
+        <v>308141</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3052688548345137</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2739350820467982</v>
+        <v>0.2735678018029803</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3369671002921485</v>
+        <v>0.3362486407117568</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>286</v>
@@ -3076,19 +3076,19 @@
         <v>312679</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>282662</v>
+        <v>282905</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>343278</v>
+        <v>345438</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2950689435844045</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2667427344371592</v>
+        <v>0.2669723288026735</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3239450833834669</v>
+        <v>0.3259830332009898</v>
       </c>
     </row>
     <row r="37">
@@ -3105,19 +3105,19 @@
         <v>11256</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>6463</v>
+        <v>5952</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>20002</v>
+        <v>18860</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.07856488216540483</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.04510919008330469</v>
+        <v>0.04154057924501935</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1396110923016433</v>
+        <v>0.1316356619919822</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>139</v>
@@ -3126,19 +3126,19 @@
         <v>159437</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>136100</v>
+        <v>135418</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>183224</v>
+        <v>183083</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1739804548713669</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1485150236750752</v>
+        <v>0.1477705895557284</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1999366055869523</v>
+        <v>0.1997829260836259</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>150</v>
@@ -3147,19 +3147,19 @@
         <v>170693</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>146576</v>
+        <v>145221</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>197918</v>
+        <v>197645</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1610799783295452</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.138320584566735</v>
+        <v>0.1370425373071808</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.186771043625069</v>
+        <v>0.1865138006653106</v>
       </c>
     </row>
     <row r="38">
@@ -3176,19 +3176,19 @@
         <v>16763</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>10253</v>
+        <v>9806</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>26586</v>
+        <v>26589</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1169984159148044</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.0715660111226385</v>
+        <v>0.0684427132203759</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1855628136295118</v>
+        <v>0.1855865324846157</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>165</v>
@@ -3197,19 +3197,19 @@
         <v>189091</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>166780</v>
+        <v>165505</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>216202</v>
+        <v>216271</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2063398532213709</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1819936075862593</v>
+        <v>0.1806015515183605</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2359234932206207</v>
+        <v>0.2359986046311927</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>180</v>
@@ -3218,19 +3218,19 @@
         <v>205854</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>180071</v>
+        <v>178211</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>234856</v>
+        <v>232187</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.194260618317675</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1699297158204911</v>
+        <v>0.1681743984723431</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2216293549113467</v>
+        <v>0.2191107405050362</v>
       </c>
     </row>
     <row r="39">
@@ -3322,19 +3322,19 @@
         <v>312194</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>281984</v>
+        <v>280508</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>352948</v>
+        <v>346209</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1184423900100428</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1069811179784473</v>
+        <v>0.1064213875050598</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1339039965515076</v>
+        <v>0.1313475177760562</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>243</v>
@@ -3343,19 +3343,19 @@
         <v>251075</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>222011</v>
+        <v>222416</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>285001</v>
+        <v>282536</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.08382818478551048</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.07412455095792685</v>
+        <v>0.07425956981978644</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.09515550413039549</v>
+        <v>0.09433252635217447</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>539</v>
@@ -3364,19 +3364,19 @@
         <v>563268</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>520823</v>
+        <v>516281</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>610518</v>
+        <v>607417</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1000310110217969</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.09249319805217658</v>
+        <v>0.09168654607754617</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1084220008498545</v>
+        <v>0.1078713017548999</v>
       </c>
     </row>
     <row r="41">
@@ -3393,19 +3393,19 @@
         <v>722053</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>679994</v>
+        <v>673886</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>772454</v>
+        <v>767368</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2739377771559854</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2579810692538108</v>
+        <v>0.2556636996071168</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2930592732823846</v>
+        <v>0.2911298764571869</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>738</v>
@@ -3414,19 +3414,19 @@
         <v>774241</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>730618</v>
+        <v>727470</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>825749</v>
+        <v>827358</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2585019422767759</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2439370642996842</v>
+        <v>0.2428859038468081</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2756990453105709</v>
+        <v>0.2762363948128596</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1426</v>
@@ -3435,19 +3435,19 @@
         <v>1496295</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1426715</v>
+        <v>1431441</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1565491</v>
+        <v>1563647</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2657274194685094</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2533708301155774</v>
+        <v>0.2542100353161132</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2780160420540382</v>
+        <v>0.2776885576267693</v>
       </c>
     </row>
     <row r="42">
@@ -3464,19 +3464,19 @@
         <v>767664</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>722528</v>
+        <v>717021</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>819027</v>
+        <v>816862</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2912422547317051</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.27411788493606</v>
+        <v>0.2720287661455248</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3107285117024894</v>
+        <v>0.309907168757004</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>850</v>
@@ -3485,19 +3485,19 @@
         <v>910765</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>861786</v>
+        <v>854030</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>962891</v>
+        <v>961091</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3040839457042461</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2877311978597544</v>
+        <v>0.2851415841746946</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3214876695443063</v>
+        <v>0.320886747002526</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1590</v>
@@ -3506,19 +3506,19 @@
         <v>1678429</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1612733</v>
+        <v>1604744</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1745789</v>
+        <v>1748493</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2980727810376456</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2864058274297191</v>
+        <v>0.2849869715485802</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3100352462571021</v>
+        <v>0.3105153465434968</v>
       </c>
     </row>
     <row r="43">
@@ -3535,19 +3535,19 @@
         <v>364084</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>326029</v>
+        <v>327669</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>399851</v>
+        <v>402978</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1381287331251302</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1236911155108253</v>
+        <v>0.1243135580325901</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1516983812868747</v>
+        <v>0.1528847043010245</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>394</v>
@@ -3556,19 +3556,19 @@
         <v>429020</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>395371</v>
+        <v>391054</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>468459</v>
+        <v>468953</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1432403101556642</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1320054970518384</v>
+        <v>0.1305643300795701</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.156408031589639</v>
+        <v>0.1565728433458136</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>742</v>
@@ -3577,19 +3577,19 @@
         <v>793104</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>739927</v>
+        <v>744246</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>846014</v>
+        <v>849718</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1408475932383786</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1314038411121348</v>
+        <v>0.1321708006442945</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.150243872335405</v>
+        <v>0.1509016679427964</v>
       </c>
     </row>
     <row r="44">
@@ -3606,19 +3606,19 @@
         <v>469833</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>429284</v>
+        <v>429978</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>511937</v>
+        <v>506694</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1782488449771364</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1628648377042069</v>
+        <v>0.1631283196001609</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1942225977252084</v>
+        <v>0.1922334671714544</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>574</v>
@@ -3627,19 +3627,19 @@
         <v>630008</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>589489</v>
+        <v>587350</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>678675</v>
+        <v>681471</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2103456170778032</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1968172324179498</v>
+        <v>0.1961029861428612</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2265943521258816</v>
+        <v>0.227527886237427</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1024</v>
@@ -3648,19 +3648,19 @@
         <v>1099842</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1045291</v>
+        <v>1042095</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1164197</v>
+        <v>1161697</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1953211952336695</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1856334875256183</v>
+        <v>0.1850659323103081</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2067500415658231</v>
+        <v>0.2063061548407689</v>
       </c>
     </row>
     <row r="45">
@@ -3994,19 +3994,19 @@
         <v>30796</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21173</v>
+        <v>20569</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>46121</v>
+        <v>45400</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06575348627452507</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04520782005990097</v>
+        <v>0.04391765250024923</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09847458783022424</v>
+        <v>0.09693448514380848</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>27</v>
@@ -4015,19 +4015,19 @@
         <v>20688</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13445</v>
+        <v>13425</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30377</v>
+        <v>29659</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.04776784637405745</v>
+        <v>0.04776784637405746</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03104456999152161</v>
+        <v>0.03099821138698474</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07013843854063657</v>
+        <v>0.06848124508839322</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>53</v>
@@ -4036,19 +4036,19 @@
         <v>51484</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>39263</v>
+        <v>38964</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>68877</v>
+        <v>65905</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.05711244342232189</v>
+        <v>0.05711244342232191</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04355488172554557</v>
+        <v>0.04322405585802652</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07640736219772457</v>
+        <v>0.07311012597487132</v>
       </c>
     </row>
     <row r="5">
@@ -4065,19 +4065,19 @@
         <v>115294</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>96352</v>
+        <v>95655</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>135475</v>
+        <v>135720</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2461670505370145</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2057225162945528</v>
+        <v>0.2042348708584212</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2892558994261394</v>
+        <v>0.2897787233725961</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>146</v>
@@ -4086,19 +4086,19 @@
         <v>104204</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>88695</v>
+        <v>89588</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>120265</v>
+        <v>120093</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.2406028930649074</v>
+        <v>0.2406028930649075</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2047947342829703</v>
+        <v>0.2068553817806141</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.277687372660806</v>
+        <v>0.2772909816282136</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>258</v>
@@ -4107,19 +4107,19 @@
         <v>219498</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>195566</v>
+        <v>198656</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>243780</v>
+        <v>247665</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.2434937999093494</v>
+        <v>0.2434937999093495</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.216946296053959</v>
+        <v>0.2203739443794137</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2704301456799402</v>
+        <v>0.2747398667995679</v>
       </c>
     </row>
     <row r="6">
@@ -4136,19 +4136,19 @@
         <v>158648</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>137873</v>
+        <v>137411</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>180353</v>
+        <v>179942</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3387335253735349</v>
+        <v>0.3387335253735348</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2943761939717333</v>
+        <v>0.2933887351418251</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3850765815776609</v>
+        <v>0.3841980704850653</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>181</v>
@@ -4157,19 +4157,19 @@
         <v>120236</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>106360</v>
+        <v>104700</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>137626</v>
+        <v>135749</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.2776208692254103</v>
+        <v>0.2776208692254104</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2455823445180556</v>
+        <v>0.2417495983936113</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.317774250762045</v>
+        <v>0.3134407342411585</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>346</v>
@@ -4178,19 +4178,19 @@
         <v>278884</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>252259</v>
+        <v>251358</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>306279</v>
+        <v>302123</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3093724860382498</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2798364643215658</v>
+        <v>0.2788365983935899</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3397622164695269</v>
+        <v>0.3351524263408953</v>
       </c>
     </row>
     <row r="7">
@@ -4207,19 +4207,19 @@
         <v>73861</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>59134</v>
+        <v>59220</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>90016</v>
+        <v>92937</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1577027983639062</v>
+        <v>0.1577027983639061</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1262585438970048</v>
+        <v>0.1264424609778869</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1921958832599085</v>
+        <v>0.1984322622513547</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>123</v>
@@ -4228,19 +4228,19 @@
         <v>83407</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>68211</v>
+        <v>70053</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>97622</v>
+        <v>97717</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1925838892191288</v>
+        <v>0.1925838892191289</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1574972921260046</v>
+        <v>0.161749948519711</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2254063953647855</v>
+        <v>0.2256257761728964</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>206</v>
@@ -4249,19 +4249,19 @@
         <v>157268</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>138128</v>
+        <v>136349</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>182392</v>
+        <v>179127</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1744611123566007</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1532289597698774</v>
+        <v>0.1512551567092914</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2023315214657872</v>
+        <v>0.1987094683364571</v>
       </c>
     </row>
     <row r="8">
@@ -4278,19 +4278,19 @@
         <v>89757</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>73241</v>
+        <v>75449</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>107954</v>
+        <v>109353</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1916431394510194</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1563791375385617</v>
+        <v>0.1610935112705992</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2304955325355922</v>
+        <v>0.233482998023713</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>147</v>
@@ -4299,19 +4299,19 @@
         <v>104560</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>89611</v>
+        <v>90766</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>120257</v>
+        <v>123435</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2414245021164959</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2069084217355497</v>
+        <v>0.209574964793576</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2776693530959313</v>
+        <v>0.2850078545597101</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>248</v>
@@ -4320,19 +4320,19 @@
         <v>194317</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>171968</v>
+        <v>171847</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>218284</v>
+        <v>218166</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2155601582734782</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1907675234030888</v>
+        <v>0.1906333263931427</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.242147916690682</v>
+        <v>0.2420169789363602</v>
       </c>
     </row>
     <row r="9">
@@ -4424,19 +4424,19 @@
         <v>28618</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18694</v>
+        <v>18869</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>42006</v>
+        <v>42408</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07029993845248399</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04592183740657209</v>
+        <v>0.0463508478453434</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.103187704591791</v>
+        <v>0.1041762845594461</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -4445,19 +4445,19 @@
         <v>25119</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17424</v>
+        <v>17667</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>35288</v>
+        <v>35049</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0682912358163522</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04737192995036624</v>
+        <v>0.04803134912222045</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09593872924991467</v>
+        <v>0.09528850136800393</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>59</v>
@@ -4466,19 +4466,19 @@
         <v>53737</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>40329</v>
+        <v>41600</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>69383</v>
+        <v>70019</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.06934647345872848</v>
+        <v>0.06934647345872846</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05204416502780022</v>
+        <v>0.05368386400777251</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08953820063913179</v>
+        <v>0.09035860424105811</v>
       </c>
     </row>
     <row r="11">
@@ -4495,19 +4495,19 @@
         <v>103934</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>87507</v>
+        <v>87043</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>124780</v>
+        <v>123238</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2553149567691702</v>
+        <v>0.2553149567691701</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2149623072240588</v>
+        <v>0.2138232378989873</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3065230179366967</v>
+        <v>0.3027345985611584</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>124</v>
@@ -4516,19 +4516,19 @@
         <v>92334</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>78195</v>
+        <v>78678</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>108559</v>
+        <v>106789</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2510294353006124</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2125903693392687</v>
+        <v>0.2139047730339035</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2951417083701371</v>
+        <v>0.2903303892336479</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>223</v>
@@ -4537,19 +4537,19 @@
         <v>196268</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>174026</v>
+        <v>173788</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>222141</v>
+        <v>222408</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2532807608524832</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2245789980572866</v>
+        <v>0.2242708247050686</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2866702873626008</v>
+        <v>0.2870153102747772</v>
       </c>
     </row>
     <row r="12">
@@ -4566,19 +4566,19 @@
         <v>108456</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>91392</v>
+        <v>90419</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>127992</v>
+        <v>127458</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2664226729230224</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2245052560179862</v>
+        <v>0.2221153497254329</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3144152416336355</v>
+        <v>0.3131034332642525</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>170</v>
@@ -4587,19 +4587,19 @@
         <v>117465</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>101653</v>
+        <v>102499</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>133782</v>
+        <v>133076</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3193540150964453</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2763674858558608</v>
+        <v>0.2786669366285842</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.363714930169583</v>
+        <v>0.361796754200441</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>284</v>
@@ -4608,19 +4608,19 @@
         <v>225920</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>204068</v>
+        <v>200411</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>250619</v>
+        <v>250251</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2915474379962848</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2633466174588714</v>
+        <v>0.2586272380410419</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3234212405404905</v>
+        <v>0.3229463453032399</v>
       </c>
     </row>
     <row r="13">
@@ -4637,19 +4637,19 @@
         <v>77636</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>61094</v>
+        <v>62831</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>99107</v>
+        <v>95579</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1907150770131648</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1500772771235221</v>
+        <v>0.154345837965548</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2434589159631745</v>
+        <v>0.234790716938044</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>95</v>
@@ -4658,19 +4658,19 @@
         <v>62611</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>50076</v>
+        <v>50865</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>74098</v>
+        <v>75253</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.170221504326221</v>
+        <v>0.1702215043262211</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.136143829934547</v>
+        <v>0.1382871008626348</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2014524799659491</v>
+        <v>0.2045924349226195</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>177</v>
@@ -4679,19 +4679,19 @@
         <v>140247</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>119327</v>
+        <v>120112</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>161937</v>
+        <v>161989</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1809874529226157</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1539901688689786</v>
+        <v>0.1550025571460771</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2089782029588668</v>
+        <v>0.2090447558976626</v>
       </c>
     </row>
     <row r="14">
@@ -4708,19 +4708,19 @@
         <v>88437</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>73659</v>
+        <v>71038</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>106180</v>
+        <v>105142</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2172473548421587</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1809431432232882</v>
+        <v>0.1745051939750594</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2608333657745168</v>
+        <v>0.2582836729022133</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>104</v>
@@ -4729,19 +4729,19 @@
         <v>70292</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>58398</v>
+        <v>58264</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>82860</v>
+        <v>83738</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1911038094603691</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1587682825513936</v>
+        <v>0.158402298671937</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2252722727296062</v>
+        <v>0.227659925384475</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>203</v>
@@ -4750,19 +4750,19 @@
         <v>158729</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>140012</v>
+        <v>141007</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>181886</v>
+        <v>180940</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2048378747698879</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1806838723043892</v>
+        <v>0.1819680482397932</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2347212159072236</v>
+        <v>0.2335006685920298</v>
       </c>
     </row>
     <row r="15">
@@ -4854,19 +4854,19 @@
         <v>28382</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19311</v>
+        <v>19215</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>40477</v>
+        <v>40085</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07115117555573076</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04840936967246826</v>
+        <v>0.0481698776437692</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1014712453781584</v>
+        <v>0.1004896705681681</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>20</v>
@@ -4875,19 +4875,19 @@
         <v>13626</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8692</v>
+        <v>8708</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20983</v>
+        <v>20059</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08057998365384599</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05140340889740196</v>
+        <v>0.05149847319172252</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1240860392957852</v>
+        <v>0.118620817669959</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>49</v>
@@ -4896,19 +4896,19 @@
         <v>42008</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>31259</v>
+        <v>31829</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>55587</v>
+        <v>55964</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07395821739720984</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05503432313472295</v>
+        <v>0.05603690402411662</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09786496053431583</v>
+        <v>0.09852822903758654</v>
       </c>
     </row>
     <row r="17">
@@ -4925,19 +4925,19 @@
         <v>125059</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>107465</v>
+        <v>104250</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>145634</v>
+        <v>143349</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.313510066589639</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2694033543638622</v>
+        <v>0.2613427699303267</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3650889911799891</v>
+        <v>0.3593601166569901</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>57</v>
@@ -4946,19 +4946,19 @@
         <v>38546</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>30754</v>
+        <v>29672</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>48831</v>
+        <v>47098</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2279511133913212</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1818670055751853</v>
+        <v>0.1754686511929103</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2887722184058689</v>
+        <v>0.2785232650599232</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>176</v>
@@ -4967,19 +4967,19 @@
         <v>163606</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>143795</v>
+        <v>142259</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>188509</v>
+        <v>186067</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.2880383888291344</v>
+        <v>0.2880383888291343</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2531608371060426</v>
+        <v>0.2504568623090332</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3318826388116228</v>
+        <v>0.3275828419006265</v>
       </c>
     </row>
     <row r="18">
@@ -4996,19 +4996,19 @@
         <v>106179</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>88311</v>
+        <v>90583</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>124176</v>
+        <v>125108</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2661800591960605</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2213850366748618</v>
+        <v>0.2270817325291769</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3112947023752799</v>
+        <v>0.3136306854227631</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>76</v>
@@ -5017,19 +5017,19 @@
         <v>46001</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>37108</v>
+        <v>37308</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>55673</v>
+        <v>56424</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2720384747371715</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2194481673034389</v>
+        <v>0.2206275233902221</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.329234246944058</v>
+        <v>0.3336741139328846</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>193</v>
@@ -5038,19 +5038,19 @@
         <v>152181</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>132454</v>
+        <v>133962</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>171201</v>
+        <v>174541</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2679241627325358</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2331941053617464</v>
+        <v>0.2358492350427392</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3014108169669552</v>
+        <v>0.3072912868373199</v>
       </c>
     </row>
     <row r="19">
@@ -5067,19 +5067,19 @@
         <v>73262</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>59706</v>
+        <v>59491</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>88448</v>
+        <v>88368</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1836599763040648</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1496751915346178</v>
+        <v>0.1491381740649845</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2217295175720008</v>
+        <v>0.2215284662531397</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>47</v>
@@ -5088,19 +5088,19 @@
         <v>26089</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19585</v>
+        <v>19294</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>33620</v>
+        <v>33176</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1542819744956961</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1158168817663331</v>
+        <v>0.1140995776039424</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1988203790096044</v>
+        <v>0.1961930112950439</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>134</v>
@@ -5109,19 +5109,19 @@
         <v>99351</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>82401</v>
+        <v>84630</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>115905</v>
+        <v>116825</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1749138782355694</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1450718518206561</v>
+        <v>0.1489968881561885</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2040579131279765</v>
+        <v>0.2056783657187882</v>
       </c>
     </row>
     <row r="20">
@@ -5138,19 +5138,19 @@
         <v>66018</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>53226</v>
+        <v>52241</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>81569</v>
+        <v>81628</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1654987223545049</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1334305218718129</v>
+        <v>0.1309617625118992</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2044835530941664</v>
+        <v>0.2046333112579065</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>66</v>
@@ -5159,19 +5159,19 @@
         <v>44836</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>35325</v>
+        <v>36191</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>56801</v>
+        <v>56625</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2651484537219653</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.208900947699478</v>
+        <v>0.2140247654372483</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3359010344732676</v>
+        <v>0.3348651676116389</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>143</v>
@@ -5180,19 +5180,19 @@
         <v>110854</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>94197</v>
+        <v>94248</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>129144</v>
+        <v>130494</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1951653528055506</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1658401737109844</v>
+        <v>0.1659302951695124</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2273668628668163</v>
+        <v>0.2297428259237445</v>
       </c>
     </row>
     <row r="21">
@@ -5284,19 +5284,19 @@
         <v>78696</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>61565</v>
+        <v>62199</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>99233</v>
+        <v>98006</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.08628067142103124</v>
+        <v>0.08628067142103127</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06749926163829535</v>
+        <v>0.06819387103927151</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.108796748646819</v>
+        <v>0.1074516643970347</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>82</v>
@@ -5305,19 +5305,19 @@
         <v>62456</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>50042</v>
+        <v>50324</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>76067</v>
+        <v>76911</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.08246922605791289</v>
+        <v>0.08246922605791288</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06607727607145124</v>
+        <v>0.06644991102025909</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1004414812556195</v>
+        <v>0.1015561636619425</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>151</v>
@@ -5326,19 +5326,19 @@
         <v>141152</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>118749</v>
+        <v>119462</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>166460</v>
+        <v>166609</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.08455162408987965</v>
+        <v>0.08455162408987964</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07113229208038242</v>
+        <v>0.07155944058828019</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09971173157801233</v>
+        <v>0.09980103254772325</v>
       </c>
     </row>
     <row r="23">
@@ -5355,19 +5355,19 @@
         <v>219322</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>194740</v>
+        <v>192699</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>248703</v>
+        <v>250623</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2404601831780228</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.213508952593702</v>
+        <v>0.2112721915419866</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2726737165786384</v>
+        <v>0.2747786219452504</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>258</v>
@@ -5376,19 +5376,19 @@
         <v>183630</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>163573</v>
+        <v>163031</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>204936</v>
+        <v>203329</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2424718191616009</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2159882317158865</v>
+        <v>0.2152726551263724</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2706056355344466</v>
+        <v>0.2684840937210645</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>467</v>
@@ -5397,19 +5397,19 @@
         <v>402951</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>370780</v>
+        <v>369775</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>438067</v>
+        <v>438945</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2413727540001868</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.222101851198117</v>
+        <v>0.2214997321073034</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2624076769951346</v>
+        <v>0.2629331498119013</v>
       </c>
     </row>
     <row r="24">
@@ -5426,19 +5426,19 @@
         <v>273427</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>245121</v>
+        <v>243365</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>303693</v>
+        <v>302898</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2997798795820337</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2687466346091114</v>
+        <v>0.2668214361064111</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3329633229874921</v>
+        <v>0.3320922218651637</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>351</v>
@@ -5447,19 +5447,19 @@
         <v>242992</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>223496</v>
+        <v>222421</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>266662</v>
+        <v>268487</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.3208565285989634</v>
+        <v>0.3208565285989635</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2951134093599336</v>
+        <v>0.293692733118536</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.352110675286547</v>
+        <v>0.3545200285091949</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>646</v>
@@ -5468,19 +5468,19 @@
         <v>516419</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>481436</v>
+        <v>478916</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>550797</v>
+        <v>553267</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.3093412192472902</v>
+        <v>0.3093412192472901</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2883862629595765</v>
+        <v>0.2868762887162614</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3299342348386044</v>
+        <v>0.3314139798228654</v>
       </c>
     </row>
     <row r="25">
@@ -5497,19 +5497,19 @@
         <v>159197</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>136716</v>
+        <v>136919</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>181228</v>
+        <v>184953</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1745412335087414</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1498931368052229</v>
+        <v>0.1501154543713188</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1986946023212769</v>
+        <v>0.2027791676330247</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>171</v>
@@ -5518,19 +5518,19 @@
         <v>109795</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>95504</v>
+        <v>94224</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>127111</v>
+        <v>127772</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1449776349892664</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1261076246901777</v>
+        <v>0.1244175389131076</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1678420287381159</v>
+        <v>0.1687154614713462</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>352</v>
@@ -5539,19 +5539,19 @@
         <v>268993</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>241816</v>
+        <v>241409</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>297219</v>
+        <v>298360</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1611298222855947</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.14485079027764</v>
+        <v>0.1446067300861206</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1780376204452089</v>
+        <v>0.1787215586782566</v>
       </c>
     </row>
     <row r="26">
@@ -5568,19 +5568,19 @@
         <v>181450</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>157885</v>
+        <v>159630</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>206443</v>
+        <v>205701</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.198938032310171</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1731019276952858</v>
+        <v>0.175015695180416</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2263399778697939</v>
+        <v>0.2255265190117113</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>251</v>
@@ -5589,19 +5589,19 @@
         <v>158451</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>140380</v>
+        <v>141796</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>177772</v>
+        <v>177654</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.2092247911922565</v>
+        <v>0.2092247911922564</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1853625950174948</v>
+        <v>0.1872331282112359</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2347364831369944</v>
+        <v>0.2345816594961479</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>456</v>
@@ -5610,19 +5610,19 @@
         <v>339901</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>309300</v>
+        <v>310419</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>370192</v>
+        <v>370835</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2036045803770487</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1852745300042523</v>
+        <v>0.1859447477102924</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2217498179579536</v>
+        <v>0.222134984036663</v>
       </c>
     </row>
     <row r="27">
@@ -5714,19 +5714,19 @@
         <v>50194</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>37753</v>
+        <v>37409</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>65429</v>
+        <v>65185</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1179387590389834</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.08870574426186713</v>
+        <v>0.08789793057753584</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1537352565764409</v>
+        <v>0.1531616416098412</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>72</v>
@@ -5735,19 +5735,19 @@
         <v>51815</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>39867</v>
+        <v>40139</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>64585</v>
+        <v>64775</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.07094973450325691</v>
+        <v>0.07094973450325688</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0545899788702341</v>
+        <v>0.05496283964593673</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.088436198605943</v>
+        <v>0.08869568015442755</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>118</v>
@@ -5756,19 +5756,19 @@
         <v>102009</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>85214</v>
+        <v>84145</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>120791</v>
+        <v>123148</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.08825084511694498</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07372139855798039</v>
+        <v>0.07279625071827907</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1045000035947241</v>
+        <v>0.1065390222884954</v>
       </c>
     </row>
     <row r="29">
@@ -5785,19 +5785,19 @@
         <v>115601</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>98081</v>
+        <v>98735</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>135087</v>
+        <v>139481</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.2716206069840637</v>
+        <v>0.2716206069840638</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2304558344492839</v>
+        <v>0.2319927814814297</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3174074057950156</v>
+        <v>0.3277319516567553</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>240</v>
@@ -5806,19 +5806,19 @@
         <v>165390</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>148646</v>
+        <v>145387</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>187038</v>
+        <v>183749</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.226468472267666</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2035406824064499</v>
+        <v>0.1990785830520781</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2561110251333399</v>
+        <v>0.2516070176983304</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>349</v>
@@ -5827,19 +5827,19 @@
         <v>280991</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>254003</v>
+        <v>253758</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>309226</v>
+        <v>308081</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2430932497532807</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2197450842134556</v>
+        <v>0.2195331909850787</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2675204351678198</v>
+        <v>0.2665295904032452</v>
       </c>
     </row>
     <row r="30">
@@ -5856,19 +5856,19 @@
         <v>116367</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>98339</v>
+        <v>99520</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>137144</v>
+        <v>134804</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.273422021204433</v>
+        <v>0.2734220212044331</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2310615518116657</v>
+        <v>0.2338369122195738</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3222388916972058</v>
+        <v>0.3167417975164488</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>332</v>
@@ -5877,19 +5877,19 @@
         <v>205793</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>186645</v>
+        <v>187667</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>226585</v>
+        <v>226293</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2817912954615608</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2555716760122156</v>
+        <v>0.2569716877689509</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3102617534603661</v>
+        <v>0.3098621639408883</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>452</v>
@@ -5898,19 +5898,19 @@
         <v>322160</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>293555</v>
+        <v>295378</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>348932</v>
+        <v>350002</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.278709772890928</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2539626264550037</v>
+        <v>0.2555396782672356</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3018712427165257</v>
+        <v>0.3027964015818628</v>
       </c>
     </row>
     <row r="31">
@@ -5927,19 +5927,19 @@
         <v>62982</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>49012</v>
+        <v>50531</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>80682</v>
+        <v>81060</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1479862587922583</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.115159937546398</v>
+        <v>0.1187294089054965</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1895737916962427</v>
+        <v>0.1904615861660361</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>213</v>
@@ -5948,19 +5948,19 @@
         <v>121088</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>106799</v>
+        <v>106322</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>139294</v>
+        <v>136970</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1658055458321092</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1462399796628195</v>
+        <v>0.1455860398849272</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1907342588787874</v>
+        <v>0.1875525236835608</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>286</v>
@@ -5969,19 +5969,19 @@
         <v>184070</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>163194</v>
+        <v>165595</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>206434</v>
+        <v>208133</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1592445784747401</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1411833879739987</v>
+        <v>0.1432605108691704</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1785915506122295</v>
+        <v>0.1800621113948196</v>
       </c>
     </row>
     <row r="32">
@@ -5998,19 +5998,19 @@
         <v>80451</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>65419</v>
+        <v>65963</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>97661</v>
+        <v>96938</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1890323539802615</v>
+        <v>0.1890323539802616</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1537108060202455</v>
+        <v>0.1549896232432755</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2294683658246205</v>
+        <v>0.2277695548651604</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>305</v>
@@ -6019,19 +6019,19 @@
         <v>186216</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>167241</v>
+        <v>168804</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>206508</v>
+        <v>207917</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.2549849519354072</v>
+        <v>0.2549849519354071</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2290028951737017</v>
+        <v>0.231142762724287</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2827700886508068</v>
+        <v>0.2847005199886893</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>398</v>
@@ -6040,19 +6040,19 @@
         <v>266667</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>241204</v>
+        <v>241631</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>292637</v>
+        <v>292351</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2307015537641063</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2086721759101243</v>
+        <v>0.2090413840017862</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2531685622223668</v>
+        <v>0.2529207485912481</v>
       </c>
     </row>
     <row r="33">
@@ -6144,19 +6144,19 @@
         <v>23333</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>12540</v>
+        <v>13353</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>37001</v>
+        <v>36787</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2693456824242674</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1447569717522202</v>
+        <v>0.1541422179759827</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4271190780335491</v>
+        <v>0.4246466004376269</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>64</v>
@@ -6165,19 +6165,19 @@
         <v>52243</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>40357</v>
+        <v>40883</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>67534</v>
+        <v>66208</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.07873693752764242</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.06082358501831463</v>
+        <v>0.06161616216193683</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1017819419142325</v>
+        <v>0.09978373187717568</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>77</v>
@@ -6186,19 +6186,19 @@
         <v>75576</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>59363</v>
+        <v>59246</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>97472</v>
+        <v>95995</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1007491612423125</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.07913535554906721</v>
+        <v>0.07897929117207537</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1299378505265959</v>
+        <v>0.1279680770984619</v>
       </c>
     </row>
     <row r="35">
@@ -6215,19 +6215,19 @@
         <v>27184</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>16241</v>
+        <v>15244</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>40424</v>
+        <v>40448</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3137941039713976</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1874730414573391</v>
+        <v>0.1759664596228911</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4666244625078402</v>
+        <v>0.4669082280027623</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>245</v>
@@ -6236,19 +6236,19 @@
         <v>174477</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>154765</v>
+        <v>154870</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>194336</v>
+        <v>196907</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2629593568744191</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2332496238068652</v>
+        <v>0.233408330946136</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2928882270264016</v>
+        <v>0.2967635410720924</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>259</v>
@@ -6257,19 +6257,19 @@
         <v>201661</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>177959</v>
+        <v>176676</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>229615</v>
+        <v>227682</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.2688299470521376</v>
+        <v>0.2688299470521375</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2372322467533998</v>
+        <v>0.2355220697985082</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.306093851890447</v>
+        <v>0.3035171806036794</v>
       </c>
     </row>
     <row r="36">
@@ -6286,19 +6286,19 @@
         <v>25969</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>14655</v>
+        <v>14692</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>39379</v>
+        <v>39634</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.2997719177723102</v>
+        <v>0.2997719177723103</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1691632012812964</v>
+        <v>0.1695978366119997</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4545620703849617</v>
+        <v>0.4575112198908541</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>286</v>
@@ -6307,19 +6307,19 @@
         <v>180697</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>159160</v>
+        <v>159129</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>200311</v>
+        <v>199967</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2723326943848166</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2398738248220336</v>
+        <v>0.2398268305184583</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3018931369387691</v>
+        <v>0.3013757277490409</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>301</v>
@@ -6328,19 +6328,19 @@
         <v>206666</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>183902</v>
+        <v>184294</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>231543</v>
+        <v>230175</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.275501480392457</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2451557413026638</v>
+        <v>0.2456773722943985</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3086639514334662</v>
+        <v>0.3068406128432215</v>
       </c>
     </row>
     <row r="37">
@@ -6357,19 +6357,19 @@
         <v>5578</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1293</v>
+        <v>1346</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>19838</v>
+        <v>20359</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.06439394001950262</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01492509755115156</v>
+        <v>0.01553499752079953</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2289999744981822</v>
+        <v>0.2350150206792326</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>185</v>
@@ -6378,19 +6378,19 @@
         <v>112996</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>97230</v>
+        <v>97516</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>129870</v>
+        <v>130442</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1702986401953462</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1465384244181381</v>
+        <v>0.1469692712975783</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.195729885442041</v>
+        <v>0.1965924295689164</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>189</v>
@@ -6399,19 +6399,19 @@
         <v>118574</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>101204</v>
+        <v>101443</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>137799</v>
+        <v>139948</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1580683621251032</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1349127954275576</v>
+        <v>0.1352310022277385</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1836962482566398</v>
+        <v>0.1865606014379398</v>
       </c>
     </row>
     <row r="38">
@@ -6428,19 +6428,19 @@
         <v>4565</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1238</v>
+        <v>1356</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>12152</v>
+        <v>12062</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.05269435581252235</v>
+        <v>0.05269435581252236</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.01429628339677848</v>
+        <v>0.01565527383874113</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1402708904835011</v>
+        <v>0.1392338999177676</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>232</v>
@@ -6449,19 +6449,19 @@
         <v>143102</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>126414</v>
+        <v>126858</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>164369</v>
+        <v>164075</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2156723710177757</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1905220812735592</v>
+        <v>0.1911909890933511</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.247724556186246</v>
+        <v>0.2472810653026717</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>236</v>
@@ -6470,19 +6470,19 @@
         <v>147667</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>128958</v>
+        <v>129180</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>167961</v>
+        <v>168140</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1968510491879898</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.171911340756429</v>
+        <v>0.1722071858643375</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2239044679359445</v>
+        <v>0.2241428275462166</v>
       </c>
     </row>
     <row r="39">
@@ -6574,19 +6574,19 @@
         <v>240020</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>209295</v>
+        <v>211211</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>273130</v>
+        <v>274998</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.08894041689006522</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.07755542110640141</v>
+        <v>0.07826536600490067</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1012096517846258</v>
+        <v>0.1019017094345658</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>299</v>
@@ -6595,19 +6595,19 @@
         <v>225947</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>201464</v>
+        <v>200632</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>256700</v>
+        <v>252217</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.07239201759113174</v>
+        <v>0.07239201759113173</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.06454781658313601</v>
+        <v>0.06428149288122041</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.0822451348048748</v>
+        <v>0.0808088187512903</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>507</v>
@@ -6616,19 +6616,19 @@
         <v>465966</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>425235</v>
+        <v>421064</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>513104</v>
+        <v>512930</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.08006553703686291</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.0730667982661336</v>
+        <v>0.07235016125802286</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.08816502663530659</v>
+        <v>0.08813511315985703</v>
       </c>
     </row>
     <row r="41">
@@ -6645,19 +6645,19 @@
         <v>706393</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>660839</v>
+        <v>657557</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>754993</v>
+        <v>756083</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.2617575422158281</v>
+        <v>0.2617575422158282</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2448773415430249</v>
+        <v>0.2436608541423391</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2797662871640522</v>
+        <v>0.2801702101642992</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1070</v>
@@ -6666,19 +6666,19 @@
         <v>758581</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>716635</v>
+        <v>716966</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>797548</v>
+        <v>801453</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.243045108614161</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2296057324158873</v>
+        <v>0.2297118488203242</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2555297296994469</v>
+        <v>0.2567811086972228</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1732</v>
@@ -6687,19 +6687,19 @@
         <v>1464975</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1392242</v>
+        <v>1399695</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1528595</v>
+        <v>1531655</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2517220942564279</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2392247237370733</v>
+        <v>0.2405053719613298</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2626538814788631</v>
+        <v>0.2631795676631479</v>
       </c>
     </row>
     <row r="42">
@@ -6716,19 +6716,19 @@
         <v>789046</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>740136</v>
+        <v>744393</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>832473</v>
+        <v>838900</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2923849540463996</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2742610301476388</v>
+        <v>0.2758384504013572</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3084770394250269</v>
+        <v>0.3108586200442728</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1396</v>
@@ -6737,19 +6737,19 @@
         <v>913184</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>871420</v>
+        <v>874206</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>958970</v>
+        <v>956485</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2925789827602382</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2791978926761355</v>
+        <v>0.2800906263371039</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.307248443962451</v>
+        <v>0.3064524310083377</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>2222</v>
@@ -6758,19 +6758,19 @@
         <v>1702230</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1637879</v>
+        <v>1636833</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1767412</v>
+        <v>1766889</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.2924890113326836</v>
+        <v>0.2924890113326835</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2814318044246337</v>
+        <v>0.2812520822883609</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3036889194827005</v>
+        <v>0.3035990979841925</v>
       </c>
     </row>
     <row r="43">
@@ -6787,19 +6787,19 @@
         <v>452518</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>415815</v>
+        <v>410627</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>494416</v>
+        <v>491217</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1676827957846362</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1540824120341913</v>
+        <v>0.1521600425250829</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.183208475836289</v>
+        <v>0.1820228804002543</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>834</v>
@@ -6808,19 +6808,19 @@
         <v>515986</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>482512</v>
+        <v>482262</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>549611</v>
+        <v>550985</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1653188566570819</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1545942321878631</v>
+        <v>0.1545140886115797</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1760923037180527</v>
+        <v>0.1765325356397601</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>1344</v>
@@ -6829,19 +6829,19 @@
         <v>968504</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>913757</v>
+        <v>917459</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>1017264</v>
+        <v>1019854</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1664150190433123</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1570080977015941</v>
+        <v>0.1576441916934588</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1747933945651036</v>
+        <v>0.1752384666041467</v>
       </c>
     </row>
     <row r="44">
@@ -6858,19 +6858,19 @@
         <v>510678</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>468563</v>
+        <v>472968</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>548824</v>
+        <v>554359</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1892342910630708</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1736282813626681</v>
+        <v>0.1752605836440144</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.203369526729679</v>
+        <v>0.2054204353496265</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>1105</v>
@@ -6879,19 +6879,19 @@
         <v>707456</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>668687</v>
+        <v>671483</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>751614</v>
+        <v>747897</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.226665034377387</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2142433646837568</v>
+        <v>0.2151392620278495</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2408130091062784</v>
+        <v>0.2396220628488428</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1684</v>
@@ -6900,19 +6900,19 @@
         <v>1218135</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1167888</v>
+        <v>1161292</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1282178</v>
+        <v>1271767</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2093083383307133</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2006747043571067</v>
+        <v>0.1995411999534578</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2203126490250688</v>
+        <v>0.2185238283239657</v>
       </c>
     </row>
     <row r="45">
